--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Sema4d-Plxnb2.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Sema4d-Plxnb2.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.69939925575485</v>
+        <v>76.08252666666667</v>
       </c>
       <c r="H2">
-        <v>4.69939925575485</v>
+        <v>228.24758</v>
       </c>
       <c r="I2">
-        <v>0.617654987363216</v>
+        <v>0.95878149807566</v>
       </c>
       <c r="J2">
-        <v>0.617654987363216</v>
+        <v>0.95878149807566</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.38229137858427</v>
+        <v>8.806900666666666</v>
       </c>
       <c r="N2">
-        <v>7.38229137858427</v>
+        <v>26.420702</v>
       </c>
       <c r="O2">
-        <v>0.15101761205772</v>
+        <v>0.1733678197953833</v>
       </c>
       <c r="P2">
-        <v>0.15101761205772</v>
+        <v>0.1733678197953834</v>
       </c>
       <c r="Q2">
-        <v>34.69233461028436</v>
+        <v>670.051254822351</v>
       </c>
       <c r="R2">
-        <v>34.69233461028436</v>
+        <v>6030.461293401159</v>
       </c>
       <c r="S2">
-        <v>0.09327678126713414</v>
+        <v>0.1662218579815287</v>
       </c>
       <c r="T2">
-        <v>0.09327678126713414</v>
+        <v>0.1662218579815287</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.69939925575485</v>
+        <v>76.08252666666667</v>
       </c>
       <c r="H3">
-        <v>4.69939925575485</v>
+        <v>228.24758</v>
       </c>
       <c r="I3">
-        <v>0.617654987363216</v>
+        <v>0.95878149807566</v>
       </c>
       <c r="J3">
-        <v>0.617654987363216</v>
+        <v>0.95878149807566</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>18.6799985207358</v>
+        <v>18.76689066666667</v>
       </c>
       <c r="N3">
-        <v>18.6799985207358</v>
+        <v>56.30067200000001</v>
       </c>
       <c r="O3">
-        <v>0.3821318646439364</v>
+        <v>0.3694347242421866</v>
       </c>
       <c r="P3">
-        <v>0.3821318646439364</v>
+        <v>0.3694347242421866</v>
       </c>
       <c r="Q3">
-        <v>87.78477114584751</v>
+        <v>1427.832459597085</v>
       </c>
       <c r="R3">
-        <v>87.78477114584751</v>
+        <v>12850.49213637376</v>
       </c>
       <c r="S3">
-        <v>0.2360256520277327</v>
+        <v>0.354207178350092</v>
       </c>
       <c r="T3">
-        <v>0.2360256520277327</v>
+        <v>0.354207178350092</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.69939925575485</v>
+        <v>76.08252666666667</v>
       </c>
       <c r="H4">
-        <v>4.69939925575485</v>
+        <v>228.24758</v>
       </c>
       <c r="I4">
-        <v>0.617654987363216</v>
+        <v>0.95878149807566</v>
       </c>
       <c r="J4">
-        <v>0.617654987363216</v>
+        <v>0.95878149807566</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>22.8213553788393</v>
+        <v>23.225144</v>
       </c>
       <c r="N4">
-        <v>22.8213553788393</v>
+        <v>69.675432</v>
       </c>
       <c r="O4">
-        <v>0.4668505232983435</v>
+        <v>0.4571974559624301</v>
       </c>
       <c r="P4">
-        <v>0.4668505232983435</v>
+        <v>0.4571974559624301</v>
       </c>
       <c r="Q4">
-        <v>107.2466604826343</v>
+        <v>1767.027637717173</v>
       </c>
       <c r="R4">
-        <v>107.2466604826343</v>
+        <v>15903.24873945456</v>
       </c>
       <c r="S4">
-        <v>0.2883525540683491</v>
+        <v>0.4383524617440394</v>
       </c>
       <c r="T4">
-        <v>0.2883525540683491</v>
+        <v>0.4383524617440394</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.860567322046172</v>
+        <v>0.9347409999999999</v>
       </c>
       <c r="H5">
-        <v>0.860567322046172</v>
+        <v>2.804223</v>
       </c>
       <c r="I5">
-        <v>0.1131067333282468</v>
+        <v>0.01177947704364805</v>
       </c>
       <c r="J5">
-        <v>0.1131067333282468</v>
+        <v>0.01177947704364805</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.38229137858427</v>
+        <v>8.806900666666666</v>
       </c>
       <c r="N5">
-        <v>7.38229137858427</v>
+        <v>26.420702</v>
       </c>
       <c r="O5">
-        <v>0.15101761205772</v>
+        <v>0.1733678197953833</v>
       </c>
       <c r="P5">
-        <v>0.15101761205772</v>
+        <v>0.1733678197953834</v>
       </c>
       <c r="Q5">
-        <v>6.352958722232809</v>
+        <v>8.232171136060664</v>
       </c>
       <c r="R5">
-        <v>6.352958722232809</v>
+        <v>74.089540224546</v>
       </c>
       <c r="S5">
-        <v>0.01708110877488116</v>
+        <v>0.00204218225338703</v>
       </c>
       <c r="T5">
-        <v>0.01708110877488116</v>
+        <v>0.00204218225338703</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.860567322046172</v>
+        <v>0.9347409999999999</v>
       </c>
       <c r="H6">
-        <v>0.860567322046172</v>
+        <v>2.804223</v>
       </c>
       <c r="I6">
-        <v>0.1131067333282468</v>
+        <v>0.01177947704364805</v>
       </c>
       <c r="J6">
-        <v>0.1131067333282468</v>
+        <v>0.01177947704364805</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>18.6799985207358</v>
+        <v>18.76689066666667</v>
       </c>
       <c r="N6">
-        <v>18.6799985207358</v>
+        <v>56.30067200000001</v>
       </c>
       <c r="O6">
-        <v>0.3821318646439364</v>
+        <v>0.3694347242421866</v>
       </c>
       <c r="P6">
-        <v>0.3821318646439364</v>
+        <v>0.3694347242421866</v>
       </c>
       <c r="Q6">
-        <v>16.07539630281606</v>
+        <v>17.54218214865067</v>
       </c>
       <c r="R6">
-        <v>16.07539630281606</v>
+        <v>157.879639337856</v>
       </c>
       <c r="S6">
-        <v>0.0432216869105074</v>
+        <v>0.004351747853337284</v>
       </c>
       <c r="T6">
-        <v>0.0432216869105074</v>
+        <v>0.004351747853337284</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.860567322046172</v>
+        <v>0.9347409999999999</v>
       </c>
       <c r="H7">
-        <v>0.860567322046172</v>
+        <v>2.804223</v>
       </c>
       <c r="I7">
-        <v>0.1131067333282468</v>
+        <v>0.01177947704364805</v>
       </c>
       <c r="J7">
-        <v>0.1131067333282468</v>
+        <v>0.01177947704364805</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>22.8213553788393</v>
+        <v>23.225144</v>
       </c>
       <c r="N7">
-        <v>22.8213553788393</v>
+        <v>69.675432</v>
       </c>
       <c r="O7">
-        <v>0.4668505232983435</v>
+        <v>0.4571974559624301</v>
       </c>
       <c r="P7">
-        <v>0.4668505232983435</v>
+        <v>0.4571974559624301</v>
       </c>
       <c r="Q7">
-        <v>19.63931268383174</v>
+        <v>21.709494327704</v>
       </c>
       <c r="R7">
-        <v>19.63931268383174</v>
+        <v>195.385448949336</v>
       </c>
       <c r="S7">
-        <v>0.05280393764285819</v>
+        <v>0.005385546936923735</v>
       </c>
       <c r="T7">
-        <v>0.05280393764285819</v>
+        <v>0.005385546936923735</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.04848693087491</v>
+        <v>2.336085333333334</v>
       </c>
       <c r="H8">
-        <v>2.04848693087491</v>
+        <v>7.008256</v>
       </c>
       <c r="I8">
-        <v>0.2692382793085372</v>
+        <v>0.02943902488069198</v>
       </c>
       <c r="J8">
-        <v>0.2692382793085372</v>
+        <v>0.02943902488069198</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.38229137858427</v>
+        <v>8.806900666666666</v>
       </c>
       <c r="N8">
-        <v>7.38229137858427</v>
+        <v>26.420702</v>
       </c>
       <c r="O8">
-        <v>0.15101761205772</v>
+        <v>0.1733678197953833</v>
       </c>
       <c r="P8">
-        <v>0.15101761205772</v>
+        <v>0.1733678197953834</v>
       </c>
       <c r="Q8">
-        <v>15.1225274089404</v>
+        <v>20.57367147952355</v>
       </c>
       <c r="R8">
-        <v>15.1225274089404</v>
+        <v>185.163043315712</v>
       </c>
       <c r="S8">
-        <v>0.04065972201570474</v>
+        <v>0.005103779560467613</v>
       </c>
       <c r="T8">
-        <v>0.04065972201570474</v>
+        <v>0.005103779560467614</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.04848693087491</v>
+        <v>2.336085333333334</v>
       </c>
       <c r="H9">
-        <v>2.04848693087491</v>
+        <v>7.008256</v>
       </c>
       <c r="I9">
-        <v>0.2692382793085372</v>
+        <v>0.02943902488069198</v>
       </c>
       <c r="J9">
-        <v>0.2692382793085372</v>
+        <v>0.02943902488069198</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>18.6799985207358</v>
+        <v>18.76689066666667</v>
       </c>
       <c r="N9">
-        <v>18.6799985207358</v>
+        <v>56.30067200000001</v>
       </c>
       <c r="O9">
-        <v>0.3821318646439364</v>
+        <v>0.3694347242421866</v>
       </c>
       <c r="P9">
-        <v>0.3821318646439364</v>
+        <v>0.3694347242421866</v>
       </c>
       <c r="Q9">
-        <v>38.26573283848994</v>
+        <v>43.84105803867023</v>
       </c>
       <c r="R9">
-        <v>38.26573283848994</v>
+        <v>394.5695223480321</v>
       </c>
       <c r="S9">
-        <v>0.1028845257056963</v>
+        <v>0.01087579803875731</v>
       </c>
       <c r="T9">
-        <v>0.1028845257056963</v>
+        <v>0.01087579803875731</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.04848693087491</v>
+        <v>2.336085333333334</v>
       </c>
       <c r="H10">
-        <v>2.04848693087491</v>
+        <v>7.008256</v>
       </c>
       <c r="I10">
-        <v>0.2692382793085372</v>
+        <v>0.02943902488069198</v>
       </c>
       <c r="J10">
-        <v>0.2692382793085372</v>
+        <v>0.02943902488069198</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>22.8213553788393</v>
+        <v>23.225144</v>
       </c>
       <c r="N10">
-        <v>22.8213553788393</v>
+        <v>69.675432</v>
       </c>
       <c r="O10">
-        <v>0.4668505232983435</v>
+        <v>0.4571974559624301</v>
       </c>
       <c r="P10">
-        <v>0.4668505232983435</v>
+        <v>0.4571974559624301</v>
       </c>
       <c r="Q10">
-        <v>46.74924823840414</v>
+        <v>54.25591826295467</v>
       </c>
       <c r="R10">
-        <v>46.74924823840414</v>
+        <v>488.303264366592</v>
       </c>
       <c r="S10">
-        <v>0.1256940315871361</v>
+        <v>0.01345944728146706</v>
       </c>
       <c r="T10">
-        <v>0.1256940315871361</v>
+        <v>0.01345944728146706</v>
       </c>
     </row>
   </sheetData>
